--- a/MARKSHEET.xlsx
+++ b/MARKSHEET.xlsx
@@ -8,15 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AI-202505B1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{755D2971-AF4A-4E5E-9010-F33BBE2EFD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9759032-404C-48D5-A6CF-D11A1D4A7D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="1" xr2:uid="{84860E0D-FFD6-480D-B9E3-975B0877EEBA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="3" xr2:uid="{84860E0D-FFD6-480D-B9E3-975B0877EEBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="pivot table" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="10" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="83">
   <si>
     <t>ID</t>
   </si>
@@ -202,6 +208,111 @@
   </si>
   <si>
     <t>SUM</t>
+  </si>
+  <si>
+    <t>TOTAL SELL</t>
+  </si>
+  <si>
+    <t>REVENCE</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Shoes</t>
+  </si>
+  <si>
+    <t>Watch</t>
+  </si>
+  <si>
+    <t>Bags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mouse </t>
+  </si>
+  <si>
+    <t>Pens</t>
+  </si>
+  <si>
+    <t>keyborads</t>
+  </si>
+  <si>
+    <t>bags</t>
+  </si>
+  <si>
+    <t>copies</t>
+  </si>
+  <si>
+    <t>books</t>
+  </si>
+  <si>
+    <t>rings</t>
+  </si>
+  <si>
+    <t>ink</t>
+  </si>
+  <si>
+    <t>pencils</t>
+  </si>
+  <si>
+    <t>remaining stock</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of REVENCE</t>
+  </si>
+  <si>
+    <t>Sum of TOTAL SELL</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>CITY</t>
+  </si>
+  <si>
+    <t>MONTH</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Mango</t>
+  </si>
+  <si>
+    <t>strawberry</t>
+  </si>
+  <si>
+    <t>watermelon</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t>karachi</t>
+  </si>
+  <si>
+    <t>multan</t>
+  </si>
+  <si>
+    <t>islamabad</t>
+  </si>
+  <si>
+    <t>januray</t>
+  </si>
+  <si>
+    <t>feburay</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
   </si>
 </sst>
 </file>
@@ -272,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -282,11 +393,22 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -298,13 +420,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -332,21 +447,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -380,6 +481,9 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -396,6 +500,536 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="admin" refreshedDate="45821.935951967593" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="14" xr:uid="{6431860E-49D8-4616-91F5-435882D3405E}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="NAME" numFmtId="0">
+      <sharedItems count="12">
+        <s v="Bags"/>
+        <s v="Watch"/>
+        <s v="Shoes"/>
+        <s v="Laptop"/>
+        <s v="mouse "/>
+        <s v="Pens"/>
+        <s v="keyborads"/>
+        <s v="copies"/>
+        <s v="books"/>
+        <s v="rings"/>
+        <s v="ink"/>
+        <s v="pencils"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="PRODUCT" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="30" maxValue="75000"/>
+    </cacheField>
+    <cacheField name="remaining stock" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6" maxValue="192"/>
+    </cacheField>
+    <cacheField name="TOTAL SELL" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100" maxValue="7500"/>
+    </cacheField>
+    <cacheField name="REVENCE" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3600" maxValue="405000"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="admin" refreshedDate="45821.945187037039" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="11" xr:uid="{A73DE05B-BEC3-417B-B387-9033A2BEE558}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table2"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="NAME" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Apple"/>
+        <s v="Mango"/>
+        <s v="strawberry"/>
+        <s v="watermelon"/>
+        <s v="banana"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="PRICE" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="250" maxValue="850"/>
+    </cacheField>
+    <cacheField name="TOTAL SELL" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="450" maxValue="1200"/>
+    </cacheField>
+    <cacheField name="REVENCE" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="112500" maxValue="900000"/>
+    </cacheField>
+    <cacheField name="CITY" numFmtId="0">
+      <sharedItems count="3">
+        <s v="karachi"/>
+        <s v="multan"/>
+        <s v="islamabad"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="MONTH" numFmtId="0">
+      <sharedItems count="3">
+        <s v="januray"/>
+        <s v="feburay"/>
+        <s v="march"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="14">
+  <r>
+    <x v="0"/>
+    <n v="5000"/>
+    <n v="78"/>
+    <n v="1700"/>
+    <n v="132600"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2500"/>
+    <n v="95"/>
+    <n v="150"/>
+    <n v="14250"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="3000"/>
+    <n v="66"/>
+    <n v="1500"/>
+    <n v="99000"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="75000"/>
+    <n v="54"/>
+    <n v="7500"/>
+    <n v="405000"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="500"/>
+    <n v="85"/>
+    <n v="700"/>
+    <n v="59500"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="100"/>
+    <n v="72"/>
+    <n v="600"/>
+    <n v="43200"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="600"/>
+    <n v="6"/>
+    <n v="600"/>
+    <n v="3600"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="5000"/>
+    <n v="66"/>
+    <n v="285"/>
+    <n v="18810"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="600"/>
+    <n v="38"/>
+    <n v="100"/>
+    <n v="3800"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="250"/>
+    <n v="99"/>
+    <n v="700"/>
+    <n v="69300"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="600"/>
+    <n v="192"/>
+    <n v="680"/>
+    <n v="130560"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="1000"/>
+    <n v="55"/>
+    <n v="500"/>
+    <n v="27500"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="100"/>
+    <n v="68"/>
+    <n v="200"/>
+    <n v="13600"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="30"/>
+    <n v="79"/>
+    <n v="100"/>
+    <n v="7900"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="11">
+  <r>
+    <x v="0"/>
+    <n v="250"/>
+    <n v="1200"/>
+    <n v="300000"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="300"/>
+    <n v="450"/>
+    <n v="135000"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="350"/>
+    <n v="500"/>
+    <n v="175000"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="750"/>
+    <n v="1200"/>
+    <n v="900000"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="800"/>
+    <n v="750"/>
+    <n v="600000"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="750"/>
+    <n v="454"/>
+    <n v="340500"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="250"/>
+    <n v="450"/>
+    <n v="112500"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="850"/>
+    <n v="900"/>
+    <n v="765000"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="500"/>
+    <n v="450"/>
+    <n v="225000"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="250"/>
+    <n v="900"/>
+    <n v="225000"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="450"/>
+    <n v="1000"/>
+    <n v="450000"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F315661B-6587-4E8F-8518-6D602570B12C}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J6:L19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of TOTAL SELL" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of REVENCE" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FC27E95-4E4A-4D54-82AA-2B711E84A3A3}" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D21:H36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="5"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of REVENCE" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CAFEF364-E71C-46F1-8CCA-A0BBBF076CF7}" name="Table1" displayName="Table1" ref="D6:H20" totalsRowShown="0">
+  <autoFilter ref="D6:H20" xr:uid="{CAFEF364-E71C-46F1-8CCA-A0BBBF076CF7}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{144A136C-8CE4-41AB-B518-82F5C32A318B}" name="NAME"/>
+    <tableColumn id="2" xr3:uid="{1A35902E-FFB7-4714-9786-99E6F6244488}" name="PRODUCT"/>
+    <tableColumn id="3" xr3:uid="{C376CC4A-3803-47E2-84C1-F3FB1EF602B4}" name="remaining stock"/>
+    <tableColumn id="4" xr3:uid="{5BB7CB2B-F6BD-4010-A1C1-091F5064313D}" name="TOTAL SELL"/>
+    <tableColumn id="5" xr3:uid="{0A4790A8-FC84-419C-BF9C-3D86CE315BC7}" name="REVENCE" dataDxfId="10">
+      <calculatedColumnFormula>Table1[[#This Row],[TOTAL SELL]]*Table1[[#This Row],[remaining stock]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{17D2F1C1-D8C7-40CE-98AA-7522C3DF8786}" name="Table2" displayName="Table2" ref="D5:I16" totalsRowShown="0">
+  <autoFilter ref="D5:I16" xr:uid="{17D2F1C1-D8C7-40CE-98AA-7522C3DF8786}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{2BE743A1-BC67-4565-ABC9-DEA5912420E3}" name="NAME"/>
+    <tableColumn id="2" xr3:uid="{36C4B089-9C58-429F-B95F-2A2C723FA586}" name="PRICE"/>
+    <tableColumn id="3" xr3:uid="{3004E085-E2BB-4B39-98C2-B517E195C26E}" name="TOTAL SELL"/>
+    <tableColumn id="4" xr3:uid="{63E274A0-E42F-4BC4-BB82-C3608A771E19}" name="REVENCE" dataDxfId="0">
+      <calculatedColumnFormula>Table2[[#This Row],[TOTAL SELL]]*Table2[[#This Row],[PRICE]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{A2D1AF82-CEB5-4B2B-A945-80788D2FAC63}" name="CITY"/>
+    <tableColumn id="6" xr3:uid="{28C05BE3-AD20-421B-8538-5A2AD7D6FC31}" name="MONTH"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1440,16 +2074,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F5:J14">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>AND(ISNUMBER(F5),F5&gt;=0,F5&lt;=40)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:L14">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
@@ -1468,8 +2102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6439334B-717D-4EE7-B61F-77C1B4987120}">
   <dimension ref="F5:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1696,38 +2330,956 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K6">
-    <cfRule type="containsBlanks" dxfId="8" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="5">
+      <formula>LEN(TRIM(K6))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="5" priority="6">
       <formula>LEN(TRIM(K6))=0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="7" priority="5">
-      <formula>LEN(TRIM(K6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="containsBlanks" dxfId="5" priority="4">
-      <formula>LEN(TRIM(M6))=0</formula>
-    </cfRule>
     <cfRule type="notContainsBlanks" dxfId="4" priority="3">
       <formula>LEN(TRIM(M6))&gt;0</formula>
     </cfRule>
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(M6))=0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="containsBlanks" dxfId="2" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
+      <formula>LEN(TRIM(O6))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(O6))=0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(O6))&gt;0</formula>
-    </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6 M6" xr:uid="{15315486-815D-4682-AC0B-FADC07E564CB}">
-      <formula1>$F$6:$F$20</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6" xr:uid="{4BA5C7D2-AE27-40ED-A3CB-4D9B3A7E051E}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6 M6 O6" xr:uid="{15315486-815D-4682-AC0B-FADC07E564CB}">
       <formula1>$F$6:$F$20</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC52150-EA0A-40D0-8424-1296DD9E2D7B}">
+  <dimension ref="D6:L20"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7">
+        <v>5000</v>
+      </c>
+      <c r="F7">
+        <v>78</v>
+      </c>
+      <c r="G7">
+        <v>1700</v>
+      </c>
+      <c r="H7">
+        <f>Table1[[#This Row],[TOTAL SELL]]*Table1[[#This Row],[remaining stock]]</f>
+        <v>132600</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="9">
+        <v>1985</v>
+      </c>
+      <c r="L7" s="9">
+        <v>151410</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8">
+        <v>2500</v>
+      </c>
+      <c r="F8">
+        <v>95</v>
+      </c>
+      <c r="G8">
+        <v>150</v>
+      </c>
+      <c r="H8">
+        <f>Table1[[#This Row],[TOTAL SELL]]*Table1[[#This Row],[remaining stock]]</f>
+        <v>14250</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="9">
+        <v>680</v>
+      </c>
+      <c r="L8" s="9">
+        <v>130560</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9">
+        <v>3000</v>
+      </c>
+      <c r="F9">
+        <v>66</v>
+      </c>
+      <c r="G9">
+        <v>1500</v>
+      </c>
+      <c r="H9">
+        <f>Table1[[#This Row],[TOTAL SELL]]*Table1[[#This Row],[remaining stock]]</f>
+        <v>99000</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="9">
+        <v>700</v>
+      </c>
+      <c r="L9" s="9">
+        <v>69300</v>
+      </c>
+    </row>
+    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>75000</v>
+      </c>
+      <c r="F10">
+        <v>54</v>
+      </c>
+      <c r="G10">
+        <v>7500</v>
+      </c>
+      <c r="H10">
+        <f>Table1[[#This Row],[TOTAL SELL]]*Table1[[#This Row],[remaining stock]]</f>
+        <v>405000</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="9">
+        <v>200</v>
+      </c>
+      <c r="L10" s="9">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11">
+        <v>500</v>
+      </c>
+      <c r="F11">
+        <v>85</v>
+      </c>
+      <c r="G11">
+        <v>700</v>
+      </c>
+      <c r="H11">
+        <f>Table1[[#This Row],[TOTAL SELL]]*Table1[[#This Row],[remaining stock]]</f>
+        <v>59500</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="9">
+        <v>600</v>
+      </c>
+      <c r="L11" s="9">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="12" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>72</v>
+      </c>
+      <c r="G12">
+        <v>600</v>
+      </c>
+      <c r="H12">
+        <f>Table1[[#This Row],[TOTAL SELL]]*Table1[[#This Row],[remaining stock]]</f>
+        <v>43200</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="9">
+        <v>7500</v>
+      </c>
+      <c r="L12" s="9">
+        <v>405000</v>
+      </c>
+    </row>
+    <row r="13" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13">
+        <v>600</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>600</v>
+      </c>
+      <c r="H13">
+        <f>Table1[[#This Row],[TOTAL SELL]]*Table1[[#This Row],[remaining stock]]</f>
+        <v>3600</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="9">
+        <v>800</v>
+      </c>
+      <c r="L13" s="9">
+        <v>63300</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14">
+        <v>5000</v>
+      </c>
+      <c r="F14">
+        <v>66</v>
+      </c>
+      <c r="G14">
+        <v>285</v>
+      </c>
+      <c r="H14">
+        <f>Table1[[#This Row],[TOTAL SELL]]*Table1[[#This Row],[remaining stock]]</f>
+        <v>18810</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="9">
+        <v>100</v>
+      </c>
+      <c r="L14" s="9">
+        <v>7900</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15">
+        <v>600</v>
+      </c>
+      <c r="F15">
+        <v>38</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <f>Table1[[#This Row],[TOTAL SELL]]*Table1[[#This Row],[remaining stock]]</f>
+        <v>3800</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="9">
+        <v>600</v>
+      </c>
+      <c r="L15" s="9">
+        <v>43200</v>
+      </c>
+    </row>
+    <row r="16" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16">
+        <v>250</v>
+      </c>
+      <c r="F16">
+        <v>99</v>
+      </c>
+      <c r="G16">
+        <v>700</v>
+      </c>
+      <c r="H16">
+        <f>Table1[[#This Row],[TOTAL SELL]]*Table1[[#This Row],[remaining stock]]</f>
+        <v>69300</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="9">
+        <v>500</v>
+      </c>
+      <c r="L16" s="9">
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17">
+        <v>600</v>
+      </c>
+      <c r="F17">
+        <v>192</v>
+      </c>
+      <c r="G17">
+        <v>680</v>
+      </c>
+      <c r="H17">
+        <f>Table1[[#This Row],[TOTAL SELL]]*Table1[[#This Row],[remaining stock]]</f>
+        <v>130560</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="9">
+        <v>1500</v>
+      </c>
+      <c r="L17" s="9">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18">
+        <v>1000</v>
+      </c>
+      <c r="F18">
+        <v>55</v>
+      </c>
+      <c r="G18">
+        <v>500</v>
+      </c>
+      <c r="H18">
+        <f>Table1[[#This Row],[TOTAL SELL]]*Table1[[#This Row],[remaining stock]]</f>
+        <v>27500</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="9">
+        <v>150</v>
+      </c>
+      <c r="L18" s="9">
+        <v>14250</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="F19">
+        <v>68</v>
+      </c>
+      <c r="G19">
+        <v>200</v>
+      </c>
+      <c r="H19">
+        <f>Table1[[#This Row],[TOTAL SELL]]*Table1[[#This Row],[remaining stock]]</f>
+        <v>13600</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="9">
+        <v>15315</v>
+      </c>
+      <c r="L19" s="9">
+        <v>1028620</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20">
+        <v>30</v>
+      </c>
+      <c r="F20">
+        <v>79</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <f>Table1[[#This Row],[TOTAL SELL]]*Table1[[#This Row],[remaining stock]]</f>
+        <v>7900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE0F968-0E03-46CF-92D1-8BF8CE796DB7}">
+  <dimension ref="D5:I36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6">
+        <v>250</v>
+      </c>
+      <c r="F6">
+        <v>1200</v>
+      </c>
+      <c r="G6">
+        <f>Table2[[#This Row],[TOTAL SELL]]*Table2[[#This Row],[PRICE]]</f>
+        <v>300000</v>
+      </c>
+      <c r="H6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7">
+        <v>300</v>
+      </c>
+      <c r="F7">
+        <v>450</v>
+      </c>
+      <c r="G7">
+        <f>Table2[[#This Row],[TOTAL SELL]]*Table2[[#This Row],[PRICE]]</f>
+        <v>135000</v>
+      </c>
+      <c r="H7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8">
+        <v>350</v>
+      </c>
+      <c r="F8">
+        <v>500</v>
+      </c>
+      <c r="G8">
+        <f>Table2[[#This Row],[TOTAL SELL]]*Table2[[#This Row],[PRICE]]</f>
+        <v>175000</v>
+      </c>
+      <c r="H8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9">
+        <v>750</v>
+      </c>
+      <c r="F9">
+        <v>1200</v>
+      </c>
+      <c r="G9">
+        <f>Table2[[#This Row],[TOTAL SELL]]*Table2[[#This Row],[PRICE]]</f>
+        <v>900000</v>
+      </c>
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10">
+        <v>800</v>
+      </c>
+      <c r="F10">
+        <v>750</v>
+      </c>
+      <c r="G10">
+        <f>Table2[[#This Row],[TOTAL SELL]]*Table2[[#This Row],[PRICE]]</f>
+        <v>600000</v>
+      </c>
+      <c r="H10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11">
+        <v>750</v>
+      </c>
+      <c r="F11">
+        <v>454</v>
+      </c>
+      <c r="G11">
+        <f>Table2[[#This Row],[TOTAL SELL]]*Table2[[#This Row],[PRICE]]</f>
+        <v>340500</v>
+      </c>
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12">
+        <v>250</v>
+      </c>
+      <c r="F12">
+        <v>450</v>
+      </c>
+      <c r="G12">
+        <f>Table2[[#This Row],[TOTAL SELL]]*Table2[[#This Row],[PRICE]]</f>
+        <v>112500</v>
+      </c>
+      <c r="H12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13">
+        <v>850</v>
+      </c>
+      <c r="F13">
+        <v>900</v>
+      </c>
+      <c r="G13">
+        <f>Table2[[#This Row],[TOTAL SELL]]*Table2[[#This Row],[PRICE]]</f>
+        <v>765000</v>
+      </c>
+      <c r="H13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14">
+        <v>500</v>
+      </c>
+      <c r="F14">
+        <v>450</v>
+      </c>
+      <c r="G14">
+        <f>Table2[[#This Row],[TOTAL SELL]]*Table2[[#This Row],[PRICE]]</f>
+        <v>225000</v>
+      </c>
+      <c r="H14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15">
+        <v>250</v>
+      </c>
+      <c r="F15">
+        <v>900</v>
+      </c>
+      <c r="G15">
+        <f>Table2[[#This Row],[TOTAL SELL]]*Table2[[#This Row],[PRICE]]</f>
+        <v>225000</v>
+      </c>
+      <c r="H15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16">
+        <v>450</v>
+      </c>
+      <c r="F16">
+        <v>1000</v>
+      </c>
+      <c r="G16">
+        <f>Table2[[#This Row],[TOTAL SELL]]*Table2[[#This Row],[PRICE]]</f>
+        <v>450000</v>
+      </c>
+      <c r="H16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D23" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1327500</v>
+      </c>
+      <c r="F23" s="9">
+        <v>225000</v>
+      </c>
+      <c r="G23" s="9">
+        <v>225000</v>
+      </c>
+      <c r="H23" s="9">
+        <v>1777500</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D24" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="9">
+        <v>112500</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9">
+        <v>225000</v>
+      </c>
+      <c r="H24" s="9">
+        <v>337500</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D25" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="9">
+        <v>450000</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D26" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9">
+        <v>225000</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9">
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D27" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="9">
+        <v>765000</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9">
+        <v>765000</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D28" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9">
+        <v>175000</v>
+      </c>
+      <c r="G28" s="9">
+        <v>340500</v>
+      </c>
+      <c r="H28" s="9">
+        <v>515500</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D29" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9">
+        <v>175000</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D30" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9">
+        <v>340500</v>
+      </c>
+      <c r="H30" s="9">
+        <v>340500</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D31" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="9">
+        <v>900000</v>
+      </c>
+      <c r="F31" s="9">
+        <v>900000</v>
+      </c>
+      <c r="G31" s="9">
+        <v>135000</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1935000</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D32" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9">
+        <v>300000</v>
+      </c>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D33" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9">
+        <v>135000</v>
+      </c>
+      <c r="H33" s="9">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D34" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="9">
+        <v>900000</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D35" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9">
+        <v>600000</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D36" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="9">
+        <v>2227500</v>
+      </c>
+      <c r="F36" s="9">
+        <v>1300000</v>
+      </c>
+      <c r="G36" s="9">
+        <v>700500</v>
+      </c>
+      <c r="H36" s="9">
+        <v>4228000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/MARKSHEET.xlsx
+++ b/MARKSHEET.xlsx
@@ -8,20 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AI-202505B1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9759032-404C-48D5-A6CF-D11A1D4A7D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D97E89D-3061-4A8B-B5F9-4F5088638CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="3" xr2:uid="{84860E0D-FFD6-480D-B9E3-975B0877EEBA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="5" xr2:uid="{84860E0D-FFD6-480D-B9E3-975B0877EEBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="pivot table" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Scenario Summary " sheetId="9" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="GraphicscARD">Sheet3!$M$9</definedName>
+    <definedName name="LCD">Sheet3!$M$7</definedName>
+    <definedName name="motherboard">Sheet3!$M$11</definedName>
+    <definedName name="Mouse">Sheet3!$M$10</definedName>
+    <definedName name="SSD">Sheet3!$M$8</definedName>
+    <definedName name="Total">Sheet3!$M$12</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId5"/>
-    <pivotCache cacheId="10" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -64,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="111">
   <si>
     <t>ID</t>
   </si>
@@ -313,13 +323,98 @@
   </si>
   <si>
     <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>math</t>
+  </si>
+  <si>
+    <t>phy</t>
+  </si>
+  <si>
+    <t>comp</t>
+  </si>
+  <si>
+    <t>urdu</t>
+  </si>
+  <si>
+    <t>sst</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Marks</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>LCD</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>Graphics Card</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Mother Board</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>maximun</t>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
+    <t>Scenario Summary</t>
+  </si>
+  <si>
+    <t>Changing Cells:</t>
+  </si>
+  <si>
+    <t>Current Values:</t>
+  </si>
+  <si>
+    <t>Result Cells:</t>
+  </si>
+  <si>
+    <t>Notes:  Current Values column represents values of changing cells at</t>
+  </si>
+  <si>
+    <t>time Scenario Summary Report was created.  Changing cells for each</t>
+  </si>
+  <si>
+    <t>scenario are highlighted in gray.</t>
+  </si>
+  <si>
+    <t>Created by STUDENT on 6/18/2025
+Modified by STUDENT on 6/18/2025</t>
+  </si>
+  <si>
+    <t>GraphicscARD</t>
+  </si>
+  <si>
+    <t>motherboard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,8 +430,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,8 +488,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="20"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -379,11 +536,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -401,14 +596,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -480,6 +701,9 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -789,7 +1013,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F315661B-6587-4E8F-8518-6D602570B12C}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F315661B-6587-4E8F-8518-6D602570B12C}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J6:L19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -886,7 +1110,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FC27E95-4E4A-4D54-82AA-2B711E84A3A3}" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1FC27E95-4E4A-4D54-82AA-2B711E84A3A3}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D21:H36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -1022,7 +1246,7 @@
     <tableColumn id="1" xr3:uid="{2BE743A1-BC67-4565-ABC9-DEA5912420E3}" name="NAME"/>
     <tableColumn id="2" xr3:uid="{36C4B089-9C58-429F-B95F-2A2C723FA586}" name="PRICE"/>
     <tableColumn id="3" xr3:uid="{3004E085-E2BB-4B39-98C2-B517E195C26E}" name="TOTAL SELL"/>
-    <tableColumn id="4" xr3:uid="{63E274A0-E42F-4BC4-BB82-C3608A771E19}" name="REVENCE" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{63E274A0-E42F-4BC4-BB82-C3608A771E19}" name="REVENCE" dataDxfId="9">
       <calculatedColumnFormula>Table2[[#This Row],[TOTAL SELL]]*Table2[[#This Row],[PRICE]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{A2D1AF82-CEB5-4B2B-A945-80788D2FAC63}" name="CITY"/>
@@ -2074,16 +2298,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F5:J14">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>AND(ISNUMBER(F5),F5&gt;=0,F5&lt;=40)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:L14">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
@@ -2330,26 +2554,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K6">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="5">
       <formula>LEN(TRIM(K6))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="5" priority="6">
+    <cfRule type="containsBlanks" dxfId="4" priority="6">
       <formula>LEN(TRIM(K6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="3">
       <formula>LEN(TRIM(M6))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
+    <cfRule type="containsBlanks" dxfId="2" priority="4">
       <formula>LEN(TRIM(M6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(O6))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(O6))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2788,7 +3012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE0F968-0E03-46CF-92D1-8BF8CE796DB7}">
   <dimension ref="D5:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -3282,4 +3506,334 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2A25B7-2572-4201-9E8B-C8150218EC8A}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="B1:F15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.140625" bestFit="1" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="2:6" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="67.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="12">
+        <v>10000</v>
+      </c>
+      <c r="E6" s="22">
+        <v>12000</v>
+      </c>
+      <c r="F6" s="22">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="12">
+        <v>8000</v>
+      </c>
+      <c r="E7" s="22">
+        <v>9000</v>
+      </c>
+      <c r="F7" s="22">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="12">
+        <v>75000</v>
+      </c>
+      <c r="E8" s="22">
+        <v>76000</v>
+      </c>
+      <c r="F8" s="22">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="22">
+        <v>2500</v>
+      </c>
+      <c r="F9" s="22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="12">
+        <v>45000</v>
+      </c>
+      <c r="E10" s="22">
+        <v>46000</v>
+      </c>
+      <c r="F10" s="22">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="2:6" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="13">
+        <v>140000</v>
+      </c>
+      <c r="E12" s="13">
+        <v>145500</v>
+      </c>
+      <c r="F12" s="13">
+        <v>129000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D59026E-EF9E-48F9-9C0C-022D87C3C0E2}">
+  <dimension ref="H6:M16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="9" width="18.7109375" customWidth="1"/>
+    <col min="12" max="13" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="L6" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H7" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="2">
+        <v>45</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" s="2">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="9" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="2">
+        <v>64</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" s="2">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="10" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="2">
+        <v>89</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M10" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="2">
+        <v>78</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11" s="2">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="12" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="2">
+        <v>73.999999999999972</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M12" s="2">
+        <f>SUM(M7:M11)</f>
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="13" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="2">
+        <f>SUM(I8:I12)</f>
+        <v>350</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
+  <scenarios current="0" show="1" sqref="M12">
+    <scenario name="maximun" locked="1" count="5" user="STUDENT" comment="Created by STUDENT on 6/18/2025_x000a_Modified by STUDENT on 6/18/2025">
+      <inputCells r="M7" val="12000"/>
+      <inputCells r="M8" val="9000"/>
+      <inputCells r="M9" val="76000"/>
+      <inputCells r="M10" val="2500"/>
+      <inputCells r="M11" val="46000"/>
+    </scenario>
+    <scenario name="minimum" locked="1" count="5" user="STUDENT" comment="Created by STUDENT on 6/18/2025_x000a_Modified by STUDENT on 6/18/2025">
+      <inputCells r="M7" val="8500"/>
+      <inputCells r="M8" val="7000"/>
+      <inputCells r="M9" val="72000"/>
+      <inputCells r="M10" val="1500"/>
+      <inputCells r="M11" val="40000"/>
+    </scenario>
+  </scenarios>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>